--- a/data/trans_dic/P23_9_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_9_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas</t>
+          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas (tasa de respuesta: 99,15%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>14,94%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17,28%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13,12%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,59; 21,12</t>
+          <t>8,29; 18,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,43; 20,01</t>
+          <t>12,14; 23,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,17; 25,76</t>
+          <t>8,15; 18,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,42; 18,93</t>
+          <t>5,75; 15,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,08; 23,25</t>
+          <t>11,78; 23,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 26,44</t>
+          <t>14,34; 26,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,4; 18,9</t>
+          <t>16,21; 28,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,27; 20,23</t>
+          <t>10,1; 22,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,47; 23,97</t>
+          <t>11,36; 19,16</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14,28; 22,61</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13,15; 21,17</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9,35; 17,47</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18,99%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12,98%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,64; 30,35</t>
+          <t>9,4; 21,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,17; 21,99</t>
+          <t>12,12; 30,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 18,74</t>
+          <t>10,56; 23,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 22,14</t>
+          <t>7,46; 19,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,95; 26,77</t>
+          <t>10,0; 22,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,99; 25,64</t>
+          <t>13,57; 26,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,69; 23,08</t>
+          <t>14,45; 27,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,43; 22,23</t>
+          <t>8,15; 20,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,76; 20,5</t>
+          <t>11,09; 19,79</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14,27; 24,67</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 23,16</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9,58; 17,47</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>46,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>36,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>36,39%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16,47%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 15,75</t>
+          <t>0,0; 28,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,0; 50,81</t>
+          <t>20,67; 73,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 45,33</t>
+          <t>7,07; 72,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,4; 25,67</t>
+          <t>3,78; 42,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,79; 34,16</t>
+          <t>1,95; 22,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,75; 35,77</t>
+          <t>14,74; 44,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,86; 17,92</t>
+          <t>6,8; 32,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,59; 38,87</t>
+          <t>3,35; 32,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,43; 35,28</t>
+          <t>1,52; 16,05</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22,02; 56,48</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12,85; 54,54</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 29,37</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>14,19%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20,39%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18,62%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13,44%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,14; 21,01</t>
+          <t>9,35; 16,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,07; 21,4</t>
+          <t>16,33; 28,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,06; 20,31</t>
+          <t>12,17; 24,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,87; 18,85</t>
+          <t>8,65; 17,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,02; 23,44</t>
+          <t>12,16; 19,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,08; 24,54</t>
+          <t>16,04; 24,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,29; 18,6</t>
+          <t>16,62; 24,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,38; 21,24</t>
+          <t>10,79; 19,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 21,04</t>
+          <t>11,64; 16,91</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>17,28; 23,95</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 22,84</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10,81; 16,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchas menos invitaciones de las que desea para distraerse y salir con otras personas (tasa de respuesta: 99,15%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>54396</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>62434</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>47694</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>53794</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>84736</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>79927</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>86089</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>85491</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>139133</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>142361</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>133782</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>139285</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>35670; 80568</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>43918; 86461</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30566; 67759</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28821; 79887</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>59071; 116291</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>59839; 109144</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>64711; 114107</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56625; 123617</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>105765; 178489</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>111263; 176148</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>101827; 163898</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>99227; 185443</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>52496</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>58253</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>50830</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>50969</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>65750</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>64731</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>66924</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>53888</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>118246</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>122983</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>117754</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>104857</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>33555; 76147</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>37946; 94864</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33661; 73583</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>30074; 79367</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>42542; 94119</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>45394; 89015</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>47899; 91790</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>32966; 83301</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>86758; 154848</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>92407; 159811</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>92130; 150556</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>77349; 141143</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5209</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36708</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30257</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22832</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8607</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21294</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13684</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15165</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13816</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>58001</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>43942</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>37997</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 28356</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16458; 58107</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5814; 59250</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4510; 50466</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1927; 22027</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11759; 35677</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5468; 25942</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3731; 35876</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3001; 31647</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35089; 90016</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>20905; 88699</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15977; 67772</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>112102</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>157394</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>128781</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>127595</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>159093</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>165951</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>166696</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>154544</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>271195</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>323346</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>295478</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>282139</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>82819; 148002</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>123228; 213339</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>94439; 190523</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>88554; 177216</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>124682; 203122</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>133397; 206334</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>134779; 200953</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>116152; 206476</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>222417; 323171</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>274095; 379852</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>244806; 362527</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>227095; 343955</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
